--- a/RUDN/Correlations/deep.Corr_in_DMA.Caribbean.xlsx
+++ b/RUDN/Correlations/deep.Corr_in_DMA.Caribbean.xlsx
@@ -13,10 +13,284 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+  <si>
+    <t>IT.CEL.SETS.P2:DMA</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:DMA</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:DMA</t>
+  </si>
+  <si>
+    <t>NE.GDI.TOTL.ZS:DMA</t>
+  </si>
+  <si>
+    <t>NE.TRD.GNFS.ZS:DMA</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:DMA</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:DMA</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:DMA</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:DMA</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:DMA</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:DMA</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:DMA</t>
+  </si>
+  <si>
+    <t>SH.ANM.NPRG.ZS:DMA</t>
+  </si>
+  <si>
+    <t>SH.DTH.IMRT:DMA</t>
+  </si>
+  <si>
+    <t>SH.DTH.MORT:DMA</t>
+  </si>
+  <si>
+    <t>SH.DTH.NMRT:DMA</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:DMA</t>
+  </si>
+  <si>
+    <t>SH.DYN.NMRT:DMA</t>
+  </si>
+  <si>
+    <t>SH.IMM.IBCG:DMA</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:DMA</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:DMA</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:DMA</t>
+  </si>
+  <si>
+    <t>SH.PRG.ANEM:DMA</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:DMA</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:DMA</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZS:DMA</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:DMA</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL.IN.ZS:DMA</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:DMA</t>
+  </si>
+  <si>
+    <t>IT.CEL.SETS.P2:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>IT.CEL.SETS.P2:DMA:p-value</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:DMA:p-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:DMA:p-value</t>
+  </si>
+  <si>
+    <t>NE.GDI.TOTL.ZS:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>NE.GDI.TOTL.ZS:DMA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:DMA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:DMA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:DMA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:DMA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:DMA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.NPRG.ZS:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.NPRG.ZS:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.IMRT:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.IMRT:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.MORT:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.MORT:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.NMRT:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.NMRT:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.NMRT:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.NMRT:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IBCG:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IBCG:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SH.PRG.ANEM:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.PRG.ANEM:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZS:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZS:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL.IN.ZS:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL.IN.ZS:DMA:p-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:DMA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:DMA:p-value</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +314,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +632,2606 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AD59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>0.3967857910131299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>0.1601163153478954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>-0.7634596585179598</v>
+      </c>
+      <c r="D4">
+        <v>-0.6471494937748059</v>
+      </c>
+      <c r="F4">
+        <v>-0.5851180371997127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>0.001485907549337646</v>
+      </c>
+      <c r="D5">
+        <v>0.01235859285609963</v>
+      </c>
+      <c r="F5">
+        <v>0.02794459051893289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>0.4875717238244761</v>
+      </c>
+      <c r="F6">
+        <v>0.6778974382047476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>0.07697410010735423</v>
+      </c>
+      <c r="F7">
+        <v>0.007713801746505304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>-0.5677226216135757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>0.03419931354359753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>0.7078372917261263</v>
+      </c>
+      <c r="C10">
+        <v>-0.7247899888009769</v>
+      </c>
+      <c r="D10">
+        <v>0.8779949684444498</v>
+      </c>
+      <c r="E10">
+        <v>-0.4784709750220065</v>
+      </c>
+      <c r="F10">
+        <v>0.5594965732089053</v>
+      </c>
+      <c r="G10">
+        <v>-0.4897926212553219</v>
+      </c>
+      <c r="H10">
+        <v>0.9979395528861584</v>
+      </c>
+      <c r="I10">
+        <v>0.9916372502847633</v>
+      </c>
+      <c r="J10">
+        <v>0.9859388066988001</v>
+      </c>
+      <c r="K10">
+        <v>0.9856363991319875</v>
+      </c>
+      <c r="M10">
+        <v>-0.9608666262255091</v>
+      </c>
+      <c r="N10">
+        <v>-0.9605937530850525</v>
+      </c>
+      <c r="O10">
+        <v>0.8744623967155059</v>
+      </c>
+      <c r="P10">
+        <v>0.8669323309164545</v>
+      </c>
+      <c r="Q10">
+        <v>0.8814258111508078</v>
+      </c>
+      <c r="R10">
+        <v>0.8803718598047386</v>
+      </c>
+      <c r="S10">
+        <v>0.8909053669389639</v>
+      </c>
+      <c r="V10">
+        <v>-0.4091793788611384</v>
+      </c>
+      <c r="X10">
+        <v>-0.9700835860917055</v>
+      </c>
+      <c r="Y10">
+        <v>0.8825063950261949</v>
+      </c>
+      <c r="Z10">
+        <v>0.8815079691750104</v>
+      </c>
+      <c r="AA10">
+        <v>-0.9496497871099583</v>
+      </c>
+      <c r="AB10">
+        <v>-0.9715137792181313</v>
+      </c>
+      <c r="AC10">
+        <v>0.9496497871099584</v>
+      </c>
+      <c r="AD10">
+        <v>0.9210045460921814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>0.004620125858526741</v>
+      </c>
+      <c r="C11">
+        <v>0.00336206829834575</v>
+      </c>
+      <c r="D11">
+        <v>3.642661579147311e-05</v>
+      </c>
+      <c r="E11">
+        <v>0.08350087289644828</v>
+      </c>
+      <c r="F11">
+        <v>0.03749352144752825</v>
+      </c>
+      <c r="G11">
+        <v>0.07543775721982948</v>
+      </c>
+      <c r="H11">
+        <v>1.099872986691449e-15</v>
+      </c>
+      <c r="I11">
+        <v>4.850551827105281e-12</v>
+      </c>
+      <c r="J11">
+        <v>1.082687262078762e-10</v>
+      </c>
+      <c r="K11">
+        <v>1.229325579182367e-10</v>
+      </c>
+      <c r="M11">
+        <v>4.765127919702269e-08</v>
+      </c>
+      <c r="N11">
+        <v>4.96504682401771e-08</v>
+      </c>
+      <c r="O11">
+        <v>4.288852113809379e-05</v>
+      </c>
+      <c r="P11">
+        <v>5.980720995841973e-05</v>
+      </c>
+      <c r="Q11">
+        <v>3.093452354279061e-05</v>
+      </c>
+      <c r="R11">
+        <v>3.254422384891807e-05</v>
+      </c>
+      <c r="S11">
+        <v>1.916703613791214e-05</v>
+      </c>
+      <c r="V11">
+        <v>0.1462836776553099</v>
+      </c>
+      <c r="X11">
+        <v>9.70383340459124e-09</v>
+      </c>
+      <c r="Y11">
+        <v>2.935229155686742e-05</v>
+      </c>
+      <c r="Z11">
+        <v>3.081182915532823e-05</v>
+      </c>
+      <c r="AA11">
+        <v>2.109471331899898e-07</v>
+      </c>
+      <c r="AB11">
+        <v>7.255069076411931e-09</v>
+      </c>
+      <c r="AC11">
+        <v>2.109471331899871e-07</v>
+      </c>
+      <c r="AD11">
+        <v>2.954115820913452e-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>-0.4456178844528135</v>
+      </c>
+      <c r="C12">
+        <v>0.3767967711146343</v>
+      </c>
+      <c r="D12">
+        <v>-0.538091639771321</v>
+      </c>
+      <c r="E12">
+        <v>0.3343826828812553</v>
+      </c>
+      <c r="H12">
+        <v>-0.4844165732982699</v>
+      </c>
+      <c r="I12">
+        <v>-0.4952513991427369</v>
+      </c>
+      <c r="J12">
+        <v>-0.4878490385219918</v>
+      </c>
+      <c r="K12">
+        <v>-0.4398514186933855</v>
+      </c>
+      <c r="L12">
+        <v>0.2383958231110304</v>
+      </c>
+      <c r="M12">
+        <v>0.5324490224934305</v>
+      </c>
+      <c r="N12">
+        <v>0.5329720468088422</v>
+      </c>
+      <c r="O12">
+        <v>-0.4660617251996862</v>
+      </c>
+      <c r="P12">
+        <v>-0.4551380763205088</v>
+      </c>
+      <c r="Q12">
+        <v>-0.4719227402711882</v>
+      </c>
+      <c r="R12">
+        <v>-0.4710638960993218</v>
+      </c>
+      <c r="S12">
+        <v>-0.4763965418200827</v>
+      </c>
+      <c r="T12">
+        <v>-0.3101169938429253</v>
+      </c>
+      <c r="U12">
+        <v>-0.2681263461079195</v>
+      </c>
+      <c r="W12">
+        <v>-0.4397998133898001</v>
+      </c>
+      <c r="X12">
+        <v>0.5351838512624904</v>
+      </c>
+      <c r="Y12">
+        <v>-0.4732103590345302</v>
+      </c>
+      <c r="Z12">
+        <v>-0.4771898653168853</v>
+      </c>
+      <c r="AA12">
+        <v>0.5140080147054908</v>
+      </c>
+      <c r="AB12">
+        <v>0.5244884970046488</v>
+      </c>
+      <c r="AC12">
+        <v>-0.5140080147054907</v>
+      </c>
+      <c r="AD12">
+        <v>-0.4980783921786124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>0.1102860812377186</v>
+      </c>
+      <c r="C13">
+        <v>0.1841830138301435</v>
+      </c>
+      <c r="D13">
+        <v>0.0471571371893933</v>
+      </c>
+      <c r="E13">
+        <v>0.2425968541050079</v>
+      </c>
+      <c r="H13">
+        <v>0.0791945585028085</v>
+      </c>
+      <c r="I13">
+        <v>0.07175401195970363</v>
+      </c>
+      <c r="J13">
+        <v>0.07678106516588878</v>
+      </c>
+      <c r="K13">
+        <v>0.1155299595850678</v>
+      </c>
+      <c r="L13">
+        <v>0.4117794171651895</v>
+      </c>
+      <c r="M13">
+        <v>0.04998148392409207</v>
+      </c>
+      <c r="N13">
+        <v>0.04971464697733404</v>
+      </c>
+      <c r="O13">
+        <v>0.09301329587598717</v>
+      </c>
+      <c r="P13">
+        <v>0.1019897347330458</v>
+      </c>
+      <c r="Q13">
+        <v>0.0884310543100193</v>
+      </c>
+      <c r="R13">
+        <v>0.08909243535935676</v>
+      </c>
+      <c r="S13">
+        <v>0.08504129925116394</v>
+      </c>
+      <c r="T13">
+        <v>0.2805626908750991</v>
+      </c>
+      <c r="U13">
+        <v>0.3540136803798107</v>
+      </c>
+      <c r="W13">
+        <v>0.1155776414587138</v>
+      </c>
+      <c r="X13">
+        <v>0.04859766497568058</v>
+      </c>
+      <c r="Y13">
+        <v>0.08744592311504</v>
+      </c>
+      <c r="Z13">
+        <v>0.08444986142710773</v>
+      </c>
+      <c r="AA13">
+        <v>0.06006995435788694</v>
+      </c>
+      <c r="AB13">
+        <v>0.05417234829644896</v>
+      </c>
+      <c r="AC13">
+        <v>0.06006995435788706</v>
+      </c>
+      <c r="AD13">
+        <v>0.06989736178699184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>0.7387056083936359</v>
+      </c>
+      <c r="C14">
+        <v>-0.7316896278326599</v>
+      </c>
+      <c r="D14">
+        <v>0.849754778628585</v>
+      </c>
+      <c r="E14">
+        <v>-0.438315211723349</v>
+      </c>
+      <c r="F14">
+        <v>0.5477594021160279</v>
+      </c>
+      <c r="I14">
+        <v>0.9916043346228658</v>
+      </c>
+      <c r="J14">
+        <v>0.9901524944117898</v>
+      </c>
+      <c r="K14">
+        <v>0.9828932179339129</v>
+      </c>
+      <c r="M14">
+        <v>-0.9653877219574895</v>
+      </c>
+      <c r="N14">
+        <v>-0.9655027697339704</v>
+      </c>
+      <c r="O14">
+        <v>0.8428626111895136</v>
+      </c>
+      <c r="P14">
+        <v>0.8342518308031753</v>
+      </c>
+      <c r="Q14">
+        <v>0.8505927588540726</v>
+      </c>
+      <c r="R14">
+        <v>0.8491522806191016</v>
+      </c>
+      <c r="S14">
+        <v>0.8611829215782336</v>
+      </c>
+      <c r="V14">
+        <v>-0.3765626068380458</v>
+      </c>
+      <c r="X14">
+        <v>-0.972620455096273</v>
+      </c>
+      <c r="Y14">
+        <v>0.8514553813949214</v>
+      </c>
+      <c r="Z14">
+        <v>0.8495511904376182</v>
+      </c>
+      <c r="AA14">
+        <v>-0.9283944654874805</v>
+      </c>
+      <c r="AB14">
+        <v>-0.9560595046093541</v>
+      </c>
+      <c r="AC14">
+        <v>0.9283944654874805</v>
+      </c>
+      <c r="AD14">
+        <v>0.8944465352862254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>0.002545946122792236</v>
+      </c>
+      <c r="C15">
+        <v>0.002935079796068476</v>
+      </c>
+      <c r="D15">
+        <v>0.0001191797020819061</v>
+      </c>
+      <c r="E15">
+        <v>0.1169551239840256</v>
+      </c>
+      <c r="F15">
+        <v>0.04259114550147659</v>
+      </c>
+      <c r="I15">
+        <v>4.965883710623879e-12</v>
+      </c>
+      <c r="J15">
+        <v>1.289042546215755e-11</v>
+      </c>
+      <c r="K15">
+        <v>3.487611711104193e-10</v>
+      </c>
+      <c r="M15">
+        <v>2.303780576554225e-08</v>
+      </c>
+      <c r="N15">
+        <v>2.258779891964005e-08</v>
+      </c>
+      <c r="O15">
+        <v>0.0001535511786260874</v>
+      </c>
+      <c r="P15">
+        <v>0.0002073565267905462</v>
+      </c>
+      <c r="Q15">
+        <v>0.0001154665903594923</v>
+      </c>
+      <c r="R15">
+        <v>0.0001219088278325364</v>
+      </c>
+      <c r="S15">
+        <v>7.608966508798548e-05</v>
+      </c>
+      <c r="V15">
+        <v>0.184477954615843</v>
+      </c>
+      <c r="X15">
+        <v>5.733650327238524e-09</v>
+      </c>
+      <c r="Y15">
+        <v>0.000111742975983523</v>
+      </c>
+      <c r="Z15">
+        <v>0.0001200962849392225</v>
+      </c>
+      <c r="AA15">
+        <v>1.665637584770938e-06</v>
+      </c>
+      <c r="AB15">
+        <v>9.450021813300772e-08</v>
+      </c>
+      <c r="AC15">
+        <v>1.665637584770938e-06</v>
+      </c>
+      <c r="AD15">
+        <v>1.584927049892229e-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>0.7576843748009656</v>
+      </c>
+      <c r="C16">
+        <v>-0.7452872742630571</v>
+      </c>
+      <c r="D16">
+        <v>0.8682591262484157</v>
+      </c>
+      <c r="E16">
+        <v>-0.4504759767596335</v>
+      </c>
+      <c r="F16">
+        <v>0.5657681485958522</v>
+      </c>
+      <c r="L16">
+        <v>-0.1229101745050952</v>
+      </c>
+      <c r="M16">
+        <v>-0.9805294910621474</v>
+      </c>
+      <c r="N16">
+        <v>-0.9802302057369888</v>
+      </c>
+      <c r="O16">
+        <v>0.854149866524534</v>
+      </c>
+      <c r="P16">
+        <v>0.8449548873856313</v>
+      </c>
+      <c r="Q16">
+        <v>0.8653063132548985</v>
+      </c>
+      <c r="R16">
+        <v>0.8617919167867176</v>
+      </c>
+      <c r="S16">
+        <v>0.8739688983924313</v>
+      </c>
+      <c r="V16">
+        <v>-0.3694901491299284</v>
+      </c>
+      <c r="X16">
+        <v>-0.9864188774832897</v>
+      </c>
+      <c r="Y16">
+        <v>0.8641589011060492</v>
+      </c>
+      <c r="Z16">
+        <v>0.8626468685786235</v>
+      </c>
+      <c r="AA16">
+        <v>-0.9410462503314329</v>
+      </c>
+      <c r="AB16">
+        <v>-0.9679159362131398</v>
+      </c>
+      <c r="AC16">
+        <v>0.941046250331433</v>
+      </c>
+      <c r="AD16">
+        <v>0.9072386216882276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>0.001694046305964831</v>
+      </c>
+      <c r="C17">
+        <v>0.002219096980531323</v>
+      </c>
+      <c r="D17">
+        <v>5.648634186378795e-05</v>
+      </c>
+      <c r="E17">
+        <v>0.1059967619458638</v>
+      </c>
+      <c r="F17">
+        <v>0.03496180308781489</v>
+      </c>
+      <c r="L17">
+        <v>0.6755054072429012</v>
+      </c>
+      <c r="M17">
+        <v>7.543386356733027e-10</v>
+      </c>
+      <c r="N17">
+        <v>8.261040348996299e-10</v>
+      </c>
+      <c r="O17">
+        <v>0.0001007348566981346</v>
+      </c>
+      <c r="P17">
+        <v>0.0001423631404822527</v>
+      </c>
+      <c r="Q17">
+        <v>6.409219364220441e-05</v>
+      </c>
+      <c r="R17">
+        <v>7.421095610624077e-05</v>
+      </c>
+      <c r="S17">
+        <v>4.386130084088726e-05</v>
+      </c>
+      <c r="V17">
+        <v>0.1935291817298885</v>
+      </c>
+      <c r="X17">
+        <v>8.798996887855213e-11</v>
+      </c>
+      <c r="Y17">
+        <v>6.726382417783158e-05</v>
+      </c>
+      <c r="Z17">
+        <v>7.163735622189789e-05</v>
+      </c>
+      <c r="AA17">
+        <v>5.333993599144852e-07</v>
+      </c>
+      <c r="AB17">
+        <v>1.469536061886743e-08</v>
+      </c>
+      <c r="AC17">
+        <v>5.333993599144788e-07</v>
+      </c>
+      <c r="AD17">
+        <v>7.512110411592778e-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>0.7897408523815213</v>
+      </c>
+      <c r="C18">
+        <v>-0.7507656281184469</v>
+      </c>
+      <c r="D18">
+        <v>0.8367150482909258</v>
+      </c>
+      <c r="E18">
+        <v>-0.4071551071569473</v>
+      </c>
+      <c r="F18">
+        <v>0.553245540523313</v>
+      </c>
+      <c r="I18">
+        <v>0.997746068882592</v>
+      </c>
+      <c r="K18">
+        <v>0.9856225227479476</v>
+      </c>
+      <c r="L18">
+        <v>-0.1592420075863676</v>
+      </c>
+      <c r="M18">
+        <v>-0.9836934109042841</v>
+      </c>
+      <c r="N18">
+        <v>-0.9837614143690477</v>
+      </c>
+      <c r="O18">
+        <v>0.8187035583160349</v>
+      </c>
+      <c r="P18">
+        <v>0.8083447150809364</v>
+      </c>
+      <c r="Q18">
+        <v>0.8309140697214181</v>
+      </c>
+      <c r="R18">
+        <v>0.8268442307557261</v>
+      </c>
+      <c r="S18">
+        <v>0.8406016172812623</v>
+      </c>
+      <c r="V18">
+        <v>-0.3326402108832343</v>
+      </c>
+      <c r="X18">
+        <v>-0.9872825781092831</v>
+      </c>
+      <c r="Y18">
+        <v>0.8293895096019753</v>
+      </c>
+      <c r="Z18">
+        <v>0.8268608920351512</v>
+      </c>
+      <c r="AA18">
+        <v>-0.9164570110248018</v>
+      </c>
+      <c r="AB18">
+        <v>-0.949399807891944</v>
+      </c>
+      <c r="AC18">
+        <v>0.916457011024802</v>
+      </c>
+      <c r="AD18">
+        <v>0.8770801405478533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>0.0007795903966742591</v>
+      </c>
+      <c r="C19">
+        <v>0.001973189873827827</v>
+      </c>
+      <c r="D19">
+        <v>0.0001906124932304484</v>
+      </c>
+      <c r="E19">
+        <v>0.1484867501546384</v>
+      </c>
+      <c r="F19">
+        <v>0.04014896222025851</v>
+      </c>
+      <c r="I19">
+        <v>1.883810990161589e-15</v>
+      </c>
+      <c r="K19">
+        <v>1.236431596279665e-10</v>
+      </c>
+      <c r="L19">
+        <v>0.5866010649517245</v>
+      </c>
+      <c r="M19">
+        <v>2.620876503747622e-10</v>
+      </c>
+      <c r="N19">
+        <v>2.556352169223774e-10</v>
+      </c>
+      <c r="O19">
+        <v>0.0003426448356417793</v>
+      </c>
+      <c r="P19">
+        <v>0.0004669173606619139</v>
+      </c>
+      <c r="Q19">
+        <v>0.0002319249526219016</v>
+      </c>
+      <c r="R19">
+        <v>0.000265012819914994</v>
+      </c>
+      <c r="S19">
+        <v>0.000166432117088933</v>
+      </c>
+      <c r="V19">
+        <v>0.2452126646851279</v>
+      </c>
+      <c r="X19">
+        <v>5.943217069788703e-11</v>
+      </c>
+      <c r="Y19">
+        <v>0.0002439034101824459</v>
+      </c>
+      <c r="Z19">
+        <v>0.0002648699964816749</v>
+      </c>
+      <c r="AA19">
+        <v>4.091701828275316e-06</v>
+      </c>
+      <c r="AB19">
+        <v>2.171907990162073e-07</v>
+      </c>
+      <c r="AC19">
+        <v>4.091701828275255e-06</v>
+      </c>
+      <c r="AD19">
+        <v>3.801811878239745e-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>0.7461921926627569</v>
+      </c>
+      <c r="C20">
+        <v>-0.752205890630581</v>
+      </c>
+      <c r="D20">
+        <v>0.8916792008818781</v>
+      </c>
+      <c r="E20">
+        <v>-0.4188257942175517</v>
+      </c>
+      <c r="F20">
+        <v>0.6396873071132277</v>
+      </c>
+      <c r="I20">
+        <v>0.9907332419262757</v>
+      </c>
+      <c r="M20">
+        <v>-0.9576561617314059</v>
+      </c>
+      <c r="N20">
+        <v>-0.9570294651195212</v>
+      </c>
+      <c r="O20">
+        <v>0.8564882710757796</v>
+      </c>
+      <c r="P20">
+        <v>0.8495878451542576</v>
+      </c>
+      <c r="Q20">
+        <v>0.8662744168291312</v>
+      </c>
+      <c r="R20">
+        <v>0.8646172823680527</v>
+      </c>
+      <c r="S20">
+        <v>0.874847826902445</v>
+      </c>
+      <c r="U20">
+        <v>-0.1253300172090596</v>
+      </c>
+      <c r="V20">
+        <v>-0.4046480662545393</v>
+      </c>
+      <c r="X20">
+        <v>-0.9757280965695264</v>
+      </c>
+      <c r="Y20">
+        <v>0.867303071512658</v>
+      </c>
+      <c r="Z20">
+        <v>0.8794329640023515</v>
+      </c>
+      <c r="AA20">
+        <v>-0.9475967078643341</v>
+      </c>
+      <c r="AB20">
+        <v>-0.9688256574186573</v>
+      </c>
+      <c r="AC20">
+        <v>0.9475967078643343</v>
+      </c>
+      <c r="AD20">
+        <v>0.9186979035094737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>0.002176888893113711</v>
+      </c>
+      <c r="C21">
+        <v>0.001912273720863074</v>
+      </c>
+      <c r="D21">
+        <v>1.839745942108712e-05</v>
+      </c>
+      <c r="E21">
+        <v>0.1360836335879873</v>
+      </c>
+      <c r="F21">
+        <v>0.01375487994415484</v>
+      </c>
+      <c r="I21">
+        <v>8.9622960204217e-12</v>
+      </c>
+      <c r="M21">
+        <v>7.594442647745975e-08</v>
+      </c>
+      <c r="N21">
+        <v>8.282968144461986e-08</v>
+      </c>
+      <c r="O21">
+        <v>9.191139279697532e-05</v>
+      </c>
+      <c r="P21">
+        <v>0.0001199308391616144</v>
+      </c>
+      <c r="Q21">
+        <v>6.151193440999e-05</v>
+      </c>
+      <c r="R21">
+        <v>6.598180575040083e-05</v>
+      </c>
+      <c r="S21">
+        <v>4.214107156397329e-05</v>
+      </c>
+      <c r="U21">
+        <v>0.6694441064837775</v>
+      </c>
+      <c r="V21">
+        <v>0.1512455617565752</v>
+      </c>
+      <c r="X21">
+        <v>2.801680036088406e-09</v>
+      </c>
+      <c r="Y21">
+        <v>5.88636708893131e-05</v>
+      </c>
+      <c r="Z21">
+        <v>3.403522265801648e-05</v>
+      </c>
+      <c r="AA21">
+        <v>2.669114991320225e-07</v>
+      </c>
+      <c r="AB21">
+        <v>1.239039329249547e-08</v>
+      </c>
+      <c r="AC21">
+        <v>2.66911499132019e-07</v>
+      </c>
+      <c r="AD21">
+        <v>3.493086107769076e-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22">
+        <v>-0.4366441965081961</v>
+      </c>
+      <c r="C22">
+        <v>0.3201839962356567</v>
+      </c>
+      <c r="D22">
+        <v>0.1297284358420716</v>
+      </c>
+      <c r="E22">
+        <v>-0.2456291650085228</v>
+      </c>
+      <c r="F22">
+        <v>0.1982096150673454</v>
+      </c>
+      <c r="N22">
+        <v>0.2734096799857295</v>
+      </c>
+      <c r="O22">
+        <v>0.1570557227072202</v>
+      </c>
+      <c r="P22">
+        <v>0.175878769257282</v>
+      </c>
+      <c r="Q22">
+        <v>0.1282984037463778</v>
+      </c>
+      <c r="R22">
+        <v>0.1484826927510062</v>
+      </c>
+      <c r="S22">
+        <v>0.1296886914222802</v>
+      </c>
+      <c r="W22">
+        <v>0.1736889493921311</v>
+      </c>
+      <c r="X22">
+        <v>0.2261606354745724</v>
+      </c>
+      <c r="Y22">
+        <v>0.1470791126924143</v>
+      </c>
+      <c r="AD22">
+        <v>0.1166597336427831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>0.1185188973875219</v>
+      </c>
+      <c r="C23">
+        <v>0.2644100314327844</v>
+      </c>
+      <c r="D23">
+        <v>0.6584747734597005</v>
+      </c>
+      <c r="E23">
+        <v>0.3972994602332028</v>
+      </c>
+      <c r="F23">
+        <v>0.4969628985094812</v>
+      </c>
+      <c r="N23">
+        <v>0.3442399748783295</v>
+      </c>
+      <c r="O23">
+        <v>0.5918153858333628</v>
+      </c>
+      <c r="P23">
+        <v>0.5475455027554239</v>
+      </c>
+      <c r="Q23">
+        <v>0.662034294525923</v>
+      </c>
+      <c r="R23">
+        <v>0.6124376853866262</v>
+      </c>
+      <c r="S23">
+        <v>0.6585736117183545</v>
+      </c>
+      <c r="W23">
+        <v>0.5526215939466818</v>
+      </c>
+      <c r="X23">
+        <v>0.4368781325804407</v>
+      </c>
+      <c r="Y23">
+        <v>0.6158400546148779</v>
+      </c>
+      <c r="AD23">
+        <v>0.6912457672520806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>-0.8038557296757105</v>
+      </c>
+      <c r="C24">
+        <v>0.7157706143375515</v>
+      </c>
+      <c r="D24">
+        <v>-0.8085374478091252</v>
+      </c>
+      <c r="E24">
+        <v>0.4488325154200971</v>
+      </c>
+      <c r="F24">
+        <v>-0.4633160134390729</v>
+      </c>
+      <c r="L24">
+        <v>0.2700525684297283</v>
+      </c>
+      <c r="N24">
+        <v>0.9998643923942563</v>
+      </c>
+      <c r="O24">
+        <v>-0.8102244858545894</v>
+      </c>
+      <c r="P24">
+        <v>-0.7963112192679518</v>
+      </c>
+      <c r="Q24">
+        <v>-0.8236545088507221</v>
+      </c>
+      <c r="R24">
+        <v>-0.8171248895158644</v>
+      </c>
+      <c r="S24">
+        <v>-0.8325371512165781</v>
+      </c>
+      <c r="X24">
+        <v>0.9940705051608254</v>
+      </c>
+      <c r="Y24">
+        <v>-0.8191549190505749</v>
+      </c>
+      <c r="AA24">
+        <v>0.9014928288228878</v>
+      </c>
+      <c r="AB24">
+        <v>0.9377055598041569</v>
+      </c>
+      <c r="AC24">
+        <v>-0.9014928288228875</v>
+      </c>
+      <c r="AD24">
+        <v>-0.8586116479319442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>0.0005309470469131657</v>
+      </c>
+      <c r="C25">
+        <v>0.003992320292235243</v>
+      </c>
+      <c r="D25">
+        <v>0.0004643143094331114</v>
+      </c>
+      <c r="E25">
+        <v>0.1074347446129875</v>
+      </c>
+      <c r="F25">
+        <v>0.0952157586742254</v>
+      </c>
+      <c r="L25">
+        <v>0.3504328667202866</v>
+      </c>
+      <c r="N25">
+        <v>8.975736253488899e-23</v>
+      </c>
+      <c r="O25">
+        <v>0.0004420237616073839</v>
+      </c>
+      <c r="P25">
+        <v>0.0006543170431134082</v>
+      </c>
+      <c r="Q25">
+        <v>0.0002935258710608425</v>
+      </c>
+      <c r="R25">
+        <v>0.0003596293058996626</v>
+      </c>
+      <c r="S25">
+        <v>0.0002196998638079789</v>
+      </c>
+      <c r="X25">
+        <v>6.195460065690685e-13</v>
+      </c>
+      <c r="Y25">
+        <v>0.0003379096237781195</v>
+      </c>
+      <c r="AA25">
+        <v>1.063680248315982e-05</v>
+      </c>
+      <c r="AB25">
+        <v>7.37046814277098e-07</v>
+      </c>
+      <c r="AC25">
+        <v>1.063680248316002e-05</v>
+      </c>
+      <c r="AD25">
+        <v>8.44537562284673e-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>-0.8063273247159556</v>
+      </c>
+      <c r="C26">
+        <v>0.717330187092528</v>
+      </c>
+      <c r="D26">
+        <v>-0.8066773164426116</v>
+      </c>
+      <c r="E26">
+        <v>0.4448553641791411</v>
+      </c>
+      <c r="F26">
+        <v>-0.4623638241238084</v>
+      </c>
+      <c r="X26">
+        <v>0.993842768782418</v>
+      </c>
+      <c r="AA26">
+        <v>0.8993348727046769</v>
+      </c>
+      <c r="AB26">
+        <v>0.9361198697474774</v>
+      </c>
+      <c r="AC26">
+        <v>-0.8993348727046769</v>
+      </c>
+      <c r="AD26">
+        <v>-0.8559608583133405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>0.0004948756069906496</v>
+      </c>
+      <c r="C27">
+        <v>0.003877195813848249</v>
+      </c>
+      <c r="D27">
+        <v>0.0004899310959381631</v>
+      </c>
+      <c r="E27">
+        <v>0.1109699590232194</v>
+      </c>
+      <c r="F27">
+        <v>0.09598794034626253</v>
+      </c>
+      <c r="X27">
+        <v>7.763681715047067e-13</v>
+      </c>
+      <c r="AA27">
+        <v>1.20555974229876e-05</v>
+      </c>
+      <c r="AB27">
+        <v>8.54045569732023e-07</v>
+      </c>
+      <c r="AC27">
+        <v>1.20555974229876e-05</v>
+      </c>
+      <c r="AD27">
+        <v>9.384435737065228e-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>0.3646164118486409</v>
+      </c>
+      <c r="C28">
+        <v>-0.5191067326656479</v>
+      </c>
+      <c r="D28">
+        <v>0.9349248623507808</v>
+      </c>
+      <c r="E28">
+        <v>-0.7849448463782138</v>
+      </c>
+      <c r="F28">
+        <v>0.4748151912915134</v>
+      </c>
+      <c r="N28">
+        <v>-0.807163558134989</v>
+      </c>
+      <c r="P28">
+        <v>0.9994283144825682</v>
+      </c>
+      <c r="Q28">
+        <v>0.9984173550769645</v>
+      </c>
+      <c r="X28">
+        <v>-0.8192107886454839</v>
+      </c>
+      <c r="AA28">
+        <v>-0.9712489843713098</v>
+      </c>
+      <c r="AB28">
+        <v>-0.9507379345018945</v>
+      </c>
+      <c r="AC28">
+        <v>0.9712489843713098</v>
+      </c>
+      <c r="AD28">
+        <v>0.9832031647042461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>0.1999282917623365</v>
+      </c>
+      <c r="C29">
+        <v>0.05714589993714754</v>
+      </c>
+      <c r="D29">
+        <v>9.519978122594518e-07</v>
+      </c>
+      <c r="E29">
+        <v>0.0008826157675159132</v>
+      </c>
+      <c r="F29">
+        <v>0.08622888010799643</v>
+      </c>
+      <c r="N29">
+        <v>0.0004831277296314459</v>
+      </c>
+      <c r="P29">
+        <v>5.033882234054781e-19</v>
+      </c>
+      <c r="Q29">
+        <v>2.26109918913432e-16</v>
+      </c>
+      <c r="X29">
+        <v>0.0003373271872013744</v>
+      </c>
+      <c r="AA29">
+        <v>7.664828754766208e-09</v>
+      </c>
+      <c r="AB29">
+        <v>1.854702606125956e-07</v>
+      </c>
+      <c r="AC29">
+        <v>7.664828754766208e-09</v>
+      </c>
+      <c r="AD29">
+        <v>3.127327411798787e-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <v>0.3436872654794525</v>
+      </c>
+      <c r="C30">
+        <v>-0.5088343264600591</v>
+      </c>
+      <c r="D30">
+        <v>0.9367363693918105</v>
+      </c>
+      <c r="E30">
+        <v>-0.7846259113466811</v>
+      </c>
+      <c r="F30">
+        <v>0.4846563971787278</v>
+      </c>
+      <c r="N30">
+        <v>-0.7931850826126419</v>
+      </c>
+      <c r="X30">
+        <v>-0.8071503459632881</v>
+      </c>
+      <c r="AA30">
+        <v>-0.9676072447038337</v>
+      </c>
+      <c r="AB30">
+        <v>-0.944765877601448</v>
+      </c>
+      <c r="AC30">
+        <v>0.9676072447038339</v>
+      </c>
+      <c r="AD30">
+        <v>0.9817941308153696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>0.2289182160941785</v>
+      </c>
+      <c r="C31">
+        <v>0.06314538742752139</v>
+      </c>
+      <c r="D31">
+        <v>8.068621330622061e-07</v>
+      </c>
+      <c r="E31">
+        <v>0.0008898348985095021</v>
+      </c>
+      <c r="F31">
+        <v>0.07902421336309927</v>
+      </c>
+      <c r="N31">
+        <v>0.0007117307037016293</v>
+      </c>
+      <c r="X31">
+        <v>0.000483311580962609</v>
+      </c>
+      <c r="AA31">
+        <v>1.555393953723528e-08</v>
+      </c>
+      <c r="AB31">
+        <v>3.637218671152422e-07</v>
+      </c>
+      <c r="AC31">
+        <v>1.555393953723495e-08</v>
+      </c>
+      <c r="AD31">
+        <v>5.055413876546761e-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>0.3846746359707967</v>
+      </c>
+      <c r="C32">
+        <v>-0.5422728382610764</v>
+      </c>
+      <c r="D32">
+        <v>0.9421958842092106</v>
+      </c>
+      <c r="E32">
+        <v>-0.7668881397189494</v>
+      </c>
+      <c r="F32">
+        <v>0.4986586273471675</v>
+      </c>
+      <c r="N32">
+        <v>-0.8206361760435477</v>
+      </c>
+      <c r="P32">
+        <v>0.9975575579389689</v>
+      </c>
+      <c r="X32">
+        <v>-0.8325235579187039</v>
+      </c>
+      <c r="AA32">
+        <v>-0.9759769145318836</v>
+      </c>
+      <c r="AB32">
+        <v>-0.9570150571592601</v>
+      </c>
+      <c r="AC32">
+        <v>0.9759769145318836</v>
+      </c>
+      <c r="AD32">
+        <v>0.98616800586508</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>0.1744367209406425</v>
+      </c>
+      <c r="C33">
+        <v>0.04514065877459089</v>
+      </c>
+      <c r="D33">
+        <v>4.751507097511021e-07</v>
+      </c>
+      <c r="E33">
+        <v>0.001372323535140819</v>
+      </c>
+      <c r="F33">
+        <v>0.06952055857552633</v>
+      </c>
+      <c r="N33">
+        <v>0.0003227392282128419</v>
+      </c>
+      <c r="P33">
+        <v>3.049042763628782e-15</v>
+      </c>
+      <c r="X33">
+        <v>0.0002198000376878487</v>
+      </c>
+      <c r="AA33">
+        <v>2.635129805119053e-09</v>
+      </c>
+      <c r="AB33">
+        <v>8.29938509358287e-08</v>
+      </c>
+      <c r="AC33">
+        <v>2.635129805119053e-09</v>
+      </c>
+      <c r="AD33">
+        <v>9.815065598766903e-11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34">
+        <v>0.3768622054043784</v>
+      </c>
+      <c r="C34">
+        <v>-0.5333562813318506</v>
+      </c>
+      <c r="D34">
+        <v>0.9427355908014418</v>
+      </c>
+      <c r="E34">
+        <v>-0.7699464638013691</v>
+      </c>
+      <c r="F34">
+        <v>0.4950405294063113</v>
+      </c>
+      <c r="N34">
+        <v>-0.8140091328682466</v>
+      </c>
+      <c r="O34">
+        <v>0.999512995860397</v>
+      </c>
+      <c r="P34">
+        <v>0.9990423136346265</v>
+      </c>
+      <c r="Q34">
+        <v>0.9993796509627636</v>
+      </c>
+      <c r="X34">
+        <v>-0.8274257166226737</v>
+      </c>
+      <c r="AA34">
+        <v>-0.975589327721109</v>
+      </c>
+      <c r="AB34">
+        <v>-0.9555177586800814</v>
+      </c>
+      <c r="AC34">
+        <v>0.9755893277211088</v>
+      </c>
+      <c r="AD34">
+        <v>0.9868742830651129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35">
+        <v>0.1841006504940513</v>
+      </c>
+      <c r="C35">
+        <v>0.04951927873715241</v>
+      </c>
+      <c r="D35">
+        <v>4.49677709739347e-07</v>
+      </c>
+      <c r="E35">
+        <v>0.001276939732231917</v>
+      </c>
+      <c r="F35">
+        <v>0.07189389165177378</v>
+      </c>
+      <c r="N35">
+        <v>0.000395142468720073</v>
+      </c>
+      <c r="O35">
+        <v>1.924131056851727e-19</v>
+      </c>
+      <c r="P35">
+        <v>1.11157917858521e-17</v>
+      </c>
+      <c r="Q35">
+        <v>8.217340557156938e-19</v>
+      </c>
+      <c r="X35">
+        <v>0.0002600648798267592</v>
+      </c>
+      <c r="AA35">
+        <v>2.898301594162387e-09</v>
+      </c>
+      <c r="AB35">
+        <v>1.015897831762808e-07</v>
+      </c>
+      <c r="AC35">
+        <v>2.898301594162466e-09</v>
+      </c>
+      <c r="AD35">
+        <v>7.177668800625109e-11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36">
+        <v>0.3988429096218092</v>
+      </c>
+      <c r="C36">
+        <v>-0.543952047990947</v>
+      </c>
+      <c r="D36">
+        <v>0.9414054285133548</v>
+      </c>
+      <c r="E36">
+        <v>-0.7653782196906385</v>
+      </c>
+      <c r="F36">
+        <v>0.4918701977389716</v>
+      </c>
+      <c r="N36">
+        <v>-0.8295395152649503</v>
+      </c>
+      <c r="O36">
+        <v>0.9989905169843808</v>
+      </c>
+      <c r="P36">
+        <v>0.9977439057623014</v>
+      </c>
+      <c r="Q36">
+        <v>0.9993334178577461</v>
+      </c>
+      <c r="R36">
+        <v>0.9995825943757282</v>
+      </c>
+      <c r="X36">
+        <v>-0.8412880400124528</v>
+      </c>
+      <c r="AA36">
+        <v>-0.9792505893925005</v>
+      </c>
+      <c r="AB36">
+        <v>-0.9619074049571479</v>
+      </c>
+      <c r="AC36">
+        <v>0.9792505893925004</v>
+      </c>
+      <c r="AD36">
+        <v>0.9879295206301993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37">
+        <v>0.1577631494613611</v>
+      </c>
+      <c r="C37">
+        <v>0.04434882425922312</v>
+      </c>
+      <c r="D37">
+        <v>5.146006426597911e-07</v>
+      </c>
+      <c r="E37">
+        <v>0.00142146158014837</v>
+      </c>
+      <c r="F37">
+        <v>0.07402032412129099</v>
+      </c>
+      <c r="N37">
+        <v>0.0002427030960347545</v>
+      </c>
+      <c r="O37">
+        <v>1.524566782800299e-17</v>
+      </c>
+      <c r="P37">
+        <v>1.894675733207593e-15</v>
+      </c>
+      <c r="Q37">
+        <v>1.264717774756535e-18</v>
+      </c>
+      <c r="R37">
+        <v>7.628748444285025e-20</v>
+      </c>
+      <c r="X37">
+        <v>0.0001624323647874962</v>
+      </c>
+      <c r="AA37">
+        <v>1.101888033953482e-09</v>
+      </c>
+      <c r="AB37">
+        <v>4.062727043459069e-08</v>
+      </c>
+      <c r="AC37">
+        <v>1.101888033953518e-09</v>
+      </c>
+      <c r="AD37">
+        <v>4.350901351006639e-11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38">
+        <v>-0.1943011483907632</v>
+      </c>
+      <c r="E38">
+        <v>-0.14574316328134</v>
+      </c>
+      <c r="F38">
+        <v>-0.2447947787770267</v>
+      </c>
+      <c r="W38">
+        <v>0.7594720388888471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39">
+        <v>0.5056566584134087</v>
+      </c>
+      <c r="E39">
+        <v>0.6190851591545508</v>
+      </c>
+      <c r="F39">
+        <v>0.3989559996939717</v>
+      </c>
+      <c r="W39">
+        <v>0.001627291370109783</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40">
+        <v>-0.3296768237298843</v>
+      </c>
+      <c r="C40">
+        <v>0.1529162930047435</v>
+      </c>
+      <c r="E40">
+        <v>-0.221454943742567</v>
+      </c>
+      <c r="F40">
+        <v>-0.3049570099124644</v>
+      </c>
+      <c r="L40">
+        <v>0.3952917539412418</v>
+      </c>
+      <c r="M40">
+        <v>0.1598854524697165</v>
+      </c>
+      <c r="N40">
+        <v>0.1575996911011867</v>
+      </c>
+      <c r="T40">
+        <v>0.3977512493073952</v>
+      </c>
+      <c r="V40">
+        <v>0.4025393509227571</v>
+      </c>
+      <c r="W40">
+        <v>0.8629489272626916</v>
+      </c>
+      <c r="X40">
+        <v>0.1770724592873453</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
+      <c r="A41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41">
+        <v>0.2497005992723057</v>
+      </c>
+      <c r="C41">
+        <v>0.6017381882940822</v>
+      </c>
+      <c r="E41">
+        <v>0.4467301862644797</v>
+      </c>
+      <c r="F41">
+        <v>0.2890621940727912</v>
+      </c>
+      <c r="L41">
+        <v>0.1618397212411931</v>
+      </c>
+      <c r="M41">
+        <v>0.5850699718271513</v>
+      </c>
+      <c r="N41">
+        <v>0.5905162869255211</v>
+      </c>
+      <c r="T41">
+        <v>0.1590090654878911</v>
+      </c>
+      <c r="V41">
+        <v>0.1535921122564742</v>
+      </c>
+      <c r="W41">
+        <v>7.074565664981575e-05</v>
+      </c>
+      <c r="X41">
+        <v>0.5447869480226388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42">
+        <v>0.2001617741920755</v>
+      </c>
+      <c r="D42">
+        <v>-0.5354895796718792</v>
+      </c>
+      <c r="E42">
+        <v>0.5140945032194053</v>
+      </c>
+      <c r="F42">
+        <v>-0.3484791603813638</v>
+      </c>
+      <c r="M42">
+        <v>0.382239018419946</v>
+      </c>
+      <c r="N42">
+        <v>0.3772170296315718</v>
+      </c>
+      <c r="O42">
+        <v>-0.5967317333559929</v>
+      </c>
+      <c r="P42">
+        <v>-0.5998666585327329</v>
+      </c>
+      <c r="Q42">
+        <v>-0.5907826476585994</v>
+      </c>
+      <c r="R42">
+        <v>-0.5935036758192662</v>
+      </c>
+      <c r="S42">
+        <v>-0.5871758859698982</v>
+      </c>
+      <c r="T42">
+        <v>0.3475305525125149</v>
+      </c>
+      <c r="W42">
+        <v>0.372883139203033</v>
+      </c>
+      <c r="X42">
+        <v>0.4037408107563137</v>
+      </c>
+      <c r="Y42">
+        <v>-0.5920338530970625</v>
+      </c>
+      <c r="Z42">
+        <v>-0.5960110623743798</v>
+      </c>
+      <c r="AA42">
+        <v>0.5374831372503376</v>
+      </c>
+      <c r="AB42">
+        <v>0.49691105593016</v>
+      </c>
+      <c r="AC42">
+        <v>-0.5374831372503376</v>
+      </c>
+      <c r="AD42">
+        <v>-0.5674377712508272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43">
+        <v>0.4926467208568704</v>
+      </c>
+      <c r="D43">
+        <v>0.04844471863651661</v>
+      </c>
+      <c r="E43">
+        <v>0.06001947580366102</v>
+      </c>
+      <c r="F43">
+        <v>0.2220637608472227</v>
+      </c>
+      <c r="M43">
+        <v>0.1774135120563007</v>
+      </c>
+      <c r="N43">
+        <v>0.1836544388894651</v>
+      </c>
+      <c r="O43">
+        <v>0.02427302858851468</v>
+      </c>
+      <c r="P43">
+        <v>0.02334719284455414</v>
+      </c>
+      <c r="Q43">
+        <v>0.02610541014132095</v>
+      </c>
+      <c r="R43">
+        <v>0.02525489416571329</v>
+      </c>
+      <c r="S43">
+        <v>0.02726560845241992</v>
+      </c>
+      <c r="T43">
+        <v>0.2234104243796105</v>
+      </c>
+      <c r="W43">
+        <v>0.1891522659488638</v>
+      </c>
+      <c r="X43">
+        <v>0.1522522198399666</v>
+      </c>
+      <c r="Y43">
+        <v>0.02571169753279375</v>
+      </c>
+      <c r="Z43">
+        <v>0.02448970426526511</v>
+      </c>
+      <c r="AA43">
+        <v>0.04745598239545781</v>
+      </c>
+      <c r="AB43">
+        <v>0.07065982590388295</v>
+      </c>
+      <c r="AC43">
+        <v>0.04745598239545781</v>
+      </c>
+      <c r="AD43">
+        <v>0.0343096672245846</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44">
+        <v>-0.2821510916793547</v>
+      </c>
+      <c r="E44">
+        <v>-0.2895473687619158</v>
+      </c>
+      <c r="F44">
+        <v>-0.3512109594879215</v>
+      </c>
+      <c r="O44">
+        <v>0.1284404569858116</v>
+      </c>
+      <c r="P44">
+        <v>0.1332934343321498</v>
+      </c>
+      <c r="Q44">
+        <v>0.1160926907714418</v>
+      </c>
+      <c r="R44">
+        <v>0.1200822698129035</v>
+      </c>
+      <c r="S44">
+        <v>0.1150690023008998</v>
+      </c>
+      <c r="Y44">
+        <v>0.1187691655125413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45">
+        <v>0.3284020833468309</v>
+      </c>
+      <c r="E45">
+        <v>0.3153282445781856</v>
+      </c>
+      <c r="F45">
+        <v>0.2182138901156987</v>
+      </c>
+      <c r="O45">
+        <v>0.6616804086467758</v>
+      </c>
+      <c r="P45">
+        <v>0.6496304186074042</v>
+      </c>
+      <c r="Q45">
+        <v>0.6926796015872263</v>
+      </c>
+      <c r="R45">
+        <v>0.6826120418606959</v>
+      </c>
+      <c r="S45">
+        <v>0.6952705385855096</v>
+      </c>
+      <c r="Y45">
+        <v>0.6859202939946882</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46">
+        <v>-0.8117934670966837</v>
+      </c>
+      <c r="C46">
+        <v>0.7414512775004216</v>
+      </c>
+      <c r="D46">
+        <v>-0.8476900368443206</v>
+      </c>
+      <c r="E46">
+        <v>0.4182376446299761</v>
+      </c>
+      <c r="F46">
+        <v>-0.5336899551131818</v>
+      </c>
+      <c r="AA46">
+        <v>0.9191785008277416</v>
+      </c>
+      <c r="AB46">
+        <v>0.9508950517734565</v>
+      </c>
+      <c r="AC46">
+        <v>-0.9191785008277416</v>
+      </c>
+      <c r="AD46">
+        <v>-0.8798328271210741</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47">
+        <v>0.0004220739578542228</v>
+      </c>
+      <c r="C47">
+        <v>0.002405269056105703</v>
+      </c>
+      <c r="D47">
+        <v>0.0001287438137023074</v>
+      </c>
+      <c r="E47">
+        <v>0.1366914977223794</v>
+      </c>
+      <c r="F47">
+        <v>0.04935007198957996</v>
+      </c>
+      <c r="AA47">
+        <v>3.374598722757823e-06</v>
+      </c>
+      <c r="AB47">
+        <v>1.820116616158507e-07</v>
+      </c>
+      <c r="AC47">
+        <v>3.374598722757823e-06</v>
+      </c>
+      <c r="AD47">
+        <v>3.339355191145169e-05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="A48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48">
+        <v>0.3813948066403056</v>
+      </c>
+      <c r="C48">
+        <v>-0.5379921620899085</v>
+      </c>
+      <c r="D48">
+        <v>0.9448019111139028</v>
+      </c>
+      <c r="E48">
+        <v>-0.76541887341401</v>
+      </c>
+      <c r="F48">
+        <v>0.498994293302951</v>
+      </c>
+      <c r="N48">
+        <v>-0.8160725946300083</v>
+      </c>
+      <c r="O48">
+        <v>0.9993222362109297</v>
+      </c>
+      <c r="P48">
+        <v>0.9988343656676273</v>
+      </c>
+      <c r="Q48">
+        <v>0.9993120865901625</v>
+      </c>
+      <c r="R48">
+        <v>0.9999674297922914</v>
+      </c>
+      <c r="S48">
+        <v>0.9995937735765975</v>
+      </c>
+      <c r="X48">
+        <v>-0.8299345568017921</v>
+      </c>
+      <c r="AA48">
+        <v>-0.9769391092497719</v>
+      </c>
+      <c r="AB48">
+        <v>-0.9570722616337733</v>
+      </c>
+      <c r="AC48">
+        <v>0.9769391092497719</v>
+      </c>
+      <c r="AD48">
+        <v>0.9879720419200447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
+      <c r="A49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49">
+        <v>0.1784529123802333</v>
+      </c>
+      <c r="C49">
+        <v>0.04720589819941418</v>
+      </c>
+      <c r="D49">
+        <v>3.623290771749893e-07</v>
+      </c>
+      <c r="E49">
+        <v>0.001420120480897299</v>
+      </c>
+      <c r="F49">
+        <v>0.0693032394064501</v>
+      </c>
+      <c r="N49">
+        <v>0.0003713228552768725</v>
+      </c>
+      <c r="O49">
+        <v>1.397434102712674e-18</v>
+      </c>
+      <c r="P49">
+        <v>3.612276258789331e-17</v>
+      </c>
+      <c r="Q49">
+        <v>1.527757308043427e-18</v>
+      </c>
+      <c r="R49">
+        <v>1.723395105847041e-26</v>
+      </c>
+      <c r="S49">
+        <v>6.482207586446903e-20</v>
+      </c>
+      <c r="X49">
+        <v>0.0002395648868849473</v>
+      </c>
+      <c r="AA49">
+        <v>2.066281852523959e-09</v>
+      </c>
+      <c r="AB49">
+        <v>8.23436271761493e-08</v>
+      </c>
+      <c r="AC49">
+        <v>2.066281852523959e-09</v>
+      </c>
+      <c r="AD49">
+        <v>4.260134615304338e-11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
+      <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50">
+        <v>0.4085639758026484</v>
+      </c>
+      <c r="C50">
+        <v>-0.5905171821090154</v>
+      </c>
+      <c r="D50">
+        <v>0.9761450521004305</v>
+      </c>
+      <c r="E50">
+        <v>-0.6935126131549394</v>
+      </c>
+      <c r="F50">
+        <v>0.5843651756580385</v>
+      </c>
+      <c r="L50">
+        <v>0.1764742880894739</v>
+      </c>
+      <c r="M50">
+        <v>-0.8051311704691342</v>
+      </c>
+      <c r="N50">
+        <v>-0.801963997689747</v>
+      </c>
+      <c r="O50">
+        <v>0.9860035700147776</v>
+      </c>
+      <c r="P50">
+        <v>0.9869898281698272</v>
+      </c>
+      <c r="Q50">
+        <v>0.9872018311163764</v>
+      </c>
+      <c r="R50">
+        <v>0.9890449589962402</v>
+      </c>
+      <c r="S50">
+        <v>0.9873084654311751</v>
+      </c>
+      <c r="X50">
+        <v>-0.8302286167447579</v>
+      </c>
+      <c r="Y50">
+        <v>0.9898892384896585</v>
+      </c>
+      <c r="AA50">
+        <v>-0.981692192978296</v>
+      </c>
+      <c r="AB50">
+        <v>-0.9583108579912195</v>
+      </c>
+      <c r="AC50">
+        <v>0.981692192978296</v>
+      </c>
+      <c r="AD50">
+        <v>0.9951129816678824</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
+      <c r="A51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51">
+        <v>0.146951128063534</v>
+      </c>
+      <c r="C51">
+        <v>0.02618952039847747</v>
+      </c>
+      <c r="D51">
+        <v>2.527307502985841e-09</v>
+      </c>
+      <c r="E51">
+        <v>0.005947182823344582</v>
+      </c>
+      <c r="F51">
+        <v>0.02819612253562063</v>
+      </c>
+      <c r="L51">
+        <v>0.5461685403967116</v>
+      </c>
+      <c r="M51">
+        <v>0.0005120780812860979</v>
+      </c>
+      <c r="N51">
+        <v>0.0005599586700418823</v>
+      </c>
+      <c r="O51">
+        <v>1.053256665684118e-10</v>
+      </c>
+      <c r="P51">
+        <v>6.808500741694345e-11</v>
+      </c>
+      <c r="Q51">
+        <v>6.172180469829243e-11</v>
+      </c>
+      <c r="R51">
+        <v>2.437580390318473e-11</v>
+      </c>
+      <c r="S51">
+        <v>5.871325443474337e-11</v>
+      </c>
+      <c r="X51">
+        <v>0.0002372502415465623</v>
+      </c>
+      <c r="Y51">
+        <v>1.509270479188172e-11</v>
+      </c>
+      <c r="AA51">
+        <v>5.226495897204425e-10</v>
+      </c>
+      <c r="AB51">
+        <v>6.926467473460998e-08</v>
+      </c>
+      <c r="AC51">
+        <v>5.226495897204425e-10</v>
+      </c>
+      <c r="AD51">
+        <v>1.946271506149496e-13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
+      <c r="A52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52">
+        <v>-0.559289423727546</v>
+      </c>
+      <c r="C52">
+        <v>0.6662711967389146</v>
+      </c>
+      <c r="D52">
+        <v>-0.9668130859468843</v>
+      </c>
+      <c r="E52">
+        <v>0.6364656425580255</v>
+      </c>
+      <c r="F52">
+        <v>-0.5782938373728306</v>
+      </c>
+      <c r="AC52">
+        <v>-1</v>
+      </c>
+      <c r="AD52">
+        <v>-0.9956941419026574</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
+      <c r="A53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53">
+        <v>0.0375793856261199</v>
+      </c>
+      <c r="C53">
+        <v>0.009274373422220046</v>
+      </c>
+      <c r="D53">
+        <v>1.795583443863335e-08</v>
+      </c>
+      <c r="E53">
+        <v>0.0143936473651226</v>
+      </c>
+      <c r="F53">
+        <v>0.03028677772800403</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>9.116743140254731e-14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54">
+        <v>-0.6267202339606226</v>
+      </c>
+      <c r="C54">
+        <v>0.6942125866594745</v>
+      </c>
+      <c r="D54">
+        <v>-0.9471188058527794</v>
+      </c>
+      <c r="E54">
+        <v>0.6011901353117102</v>
+      </c>
+      <c r="F54">
+        <v>-0.5637959893011696</v>
+      </c>
+      <c r="AA54">
+        <v>0.9951655218053508</v>
+      </c>
+      <c r="AC54">
+        <v>-0.9951655218053508</v>
+      </c>
+      <c r="AD54">
+        <v>-0.9818411441434626</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
+      <c r="A55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55">
+        <v>0.01646433848021218</v>
+      </c>
+      <c r="C55">
+        <v>0.00587613532140261</v>
+      </c>
+      <c r="D55">
+        <v>2.815589017089666e-07</v>
+      </c>
+      <c r="E55">
+        <v>0.02296440528245884</v>
+      </c>
+      <c r="F55">
+        <v>0.03574386530254989</v>
+      </c>
+      <c r="AA55">
+        <v>1.824257914272945e-13</v>
+      </c>
+      <c r="AC55">
+        <v>1.824257914272945e-13</v>
+      </c>
+      <c r="AD55">
+        <v>4.97809480363049e-10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
+      <c r="A56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56">
+        <v>0.559289423727546</v>
+      </c>
+      <c r="C56">
+        <v>-0.6662711967389146</v>
+      </c>
+      <c r="D56">
+        <v>0.9668130859468843</v>
+      </c>
+      <c r="E56">
+        <v>-0.6364656425580254</v>
+      </c>
+      <c r="F56">
+        <v>0.5782938373728306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
+      <c r="A57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57">
+        <v>0.0375793856261199</v>
+      </c>
+      <c r="C57">
+        <v>0.009274373422220046</v>
+      </c>
+      <c r="D57">
+        <v>1.795583443863335e-08</v>
+      </c>
+      <c r="E57">
+        <v>0.0143936473651226</v>
+      </c>
+      <c r="F57">
+        <v>0.03028677772800403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
+      <c r="A58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58">
+        <v>0.4878448151042322</v>
+      </c>
+      <c r="C58">
+        <v>-0.6319744074294038</v>
+      </c>
+      <c r="D58">
+        <v>0.9754070251069201</v>
+      </c>
+      <c r="E58">
+        <v>-0.6682097486036487</v>
+      </c>
+      <c r="F58">
+        <v>0.5828199978459683</v>
+      </c>
+      <c r="AC58">
+        <v>0.9956941419026574</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
+      <c r="A59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59">
+        <v>0.07678400246035952</v>
+      </c>
+      <c r="C59">
+        <v>0.01532162624900027</v>
+      </c>
+      <c r="D59">
+        <v>3.029425172017163e-09</v>
+      </c>
+      <c r="E59">
+        <v>0.008998556408030151</v>
+      </c>
+      <c r="F59">
+        <v>0.0287176574018597</v>
+      </c>
+      <c r="AC59">
+        <v>9.116743140254731e-14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>